--- a/v2/分类名录.xlsx
+++ b/v2/分类名录.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EF40DED8-CFF7-46C8-999F-2BE9FAF273E3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="分类种类" sheetId="9" r:id="rId1"/>
@@ -18,8 +17,7 @@
     <sheet name="球团矿" sheetId="11" r:id="rId8"/>
     <sheet name="非主流资源" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="816">
   <si>
     <t>PB粉</t>
   </si>
@@ -2505,13 +2503,17 @@
   </si>
   <si>
     <t>泰国块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌克兰球团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2566,7 +2568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2577,10 +2579,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 6" xfId="1"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -3013,7 +3018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3076,10 +3081,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+    <sheetView topLeftCell="A294" workbookViewId="0">
       <selection activeCell="H312" sqref="H312"/>
     </sheetView>
   </sheetViews>
@@ -4673,11 +4678,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A109"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4687,502 +4692,502 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>561</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>562</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>563</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>566</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>567</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>568</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>570</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>587</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>572</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>258</v>
+      <c r="A40" s="3" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>580</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>573</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>576</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>577</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>578</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>579</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>581</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>582</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>583</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>584</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>585</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>587</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>590</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>591</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>593</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>594</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>595</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>596</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>598</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>599</v>
+      <c r="A76" s="3" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>600</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>601</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>585</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>599</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>591</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>593</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>570</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>564</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>566</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>572</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>586</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>603</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>41</v>
+        <v>602</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
@@ -5197,38 +5202,41 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>604</v>
+      <c r="A107" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>809</v>
+      <c r="A108" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A1:A109">
+    <sortCondition ref="A40"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="1"/>
@@ -5239,7 +5247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A392"/>
   <sheetViews>
     <sheetView topLeftCell="A370" workbookViewId="0">
@@ -7215,7 +7223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7278,7 +7286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7318,7 +7326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -7420,11 +7428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7433,8 +7441,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
+      <c r="A1" s="4" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -7472,7 +7480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A88"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
